--- a/Algo_updated.xlsx
+++ b/Algo_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitta\Desktop\Ashwin\College\Sem_5\IS\IS_LAB_CCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A18C7-44EA-4AB1-B7E3-C18AF87E5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF8AE3-3D13-4AFE-A727-6F178F0B83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="0" windowWidth="9396" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Algo</t>
   </si>
@@ -77,7 +77,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>32 hex char (ie 128 bits)</t>
+    <t>32 byte</t>
+  </si>
+  <si>
+    <t>32 hex char (ie 128 bits or 16 bytes)</t>
+  </si>
+  <si>
+    <t>8 bytes</t>
   </si>
 </sst>
 </file>
@@ -582,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +599,7 @@
     <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -645,11 +651,21 @@
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -716,17 +732,29 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="7">
+        <v>256</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
